--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606825.584321467</v>
+        <v>3602493.099500775</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,19 +709,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>19.74822380794958</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>168.8457406638651</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>54.46079155833902</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>173.0241413423402</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>160.1234054437037</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>124.1699884042479</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>151.1614543711058</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.04394802033236</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250814</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229324</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210779</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>168.8664936943851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>95.77623638693832</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>105.5518343409904</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>188.4343500806758</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>5.64015276937488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2289,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>166.5451136812779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.9154861872836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216691</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>65.99480013030595</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>116.9323399797395</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.9721668030649</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576157</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.2821160880071</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>78.68827782034001</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63637568893625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7379152067518</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2445.995213046775</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2445.995213046775</v>
+        <v>2471.569148352892</v>
       </c>
       <c r="W2" t="n">
-        <v>2445.995213046775</v>
+        <v>2118.800493082778</v>
       </c>
       <c r="X2" t="n">
-        <v>2072.529454785695</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>2072.529454785695</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.6104068172089</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>154.6104068172089</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>154.6104068172089</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>154.6104068172089</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>154.6104068172089</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.6104068172089</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165211</v>
+        <v>1349.569168355882</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.3558252248</v>
+        <v>980.6066514154704</v>
       </c>
       <c r="D5" t="n">
-        <v>807.0901266180492</v>
+        <v>622.34095280872</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>236.5527002104757</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>229.6071994612723</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>215.6837953998632</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2113.174258592774</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>1739.708500331694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229333</v>
+        <v>1349.569168355882</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961345</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673425</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>713.518987007537</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005476</v>
+        <v>563.4023475952013</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4444960005476</v>
+        <v>415.4892540128081</v>
       </c>
       <c r="F7" t="n">
-        <v>473.4444960005476</v>
+        <v>268.5993065148978</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.543549400789</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.581032460377</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224084</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2659.730961704758</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2659.730961704758</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2659.730961704758</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2659.730961704758</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2659.730961704758</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>2306.962306434643</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>1933.496548173563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.543549400789</v>
+        <v>1543.357216197752</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615932</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572653</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315297</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>502.725111861912</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1517.813638001792</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1228.396467964831</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.406917066814</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836013</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>734.6461798836013</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>586.7330863012082</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>439.8431388032978</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>272.6470395181778</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.122646505557</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1063.573343591573</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>894.6371606636665</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>744.5205212513307</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>596.6074276689376</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>449.7174801710272</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>282.5213808859071</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X19" t="n">
-        <v>1466.014387565343</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>1245.221808421813</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
         <v>779.6143379232838</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6244,22 +6244,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3639.612039348919</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991042</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>699.3858046984096</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>551.4727111160165</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1859.347605783499</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1604.663117577612</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W31" t="n">
-        <v>1315.245947540652</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X31" t="n">
-        <v>1087.256396642634</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y31" t="n">
-        <v>866.4638174991042</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432001</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654462</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891998</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446605</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1378.513107377167</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.523556479149</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356194</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,16 +7736,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1897.296768897751</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1642.612280691864</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1353.195110654903</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599066</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451742</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>83.27114962944287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.51847645928557</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>98.08864825591516</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7017074173499793</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.33133491134424</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32.8926045705997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>79.4262478926253</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>169.2521344095047</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>40.6433062151475</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>31.13893193492419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>147.0213775686971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>231.8866226476547</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4465591824924</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="E2" t="n">
         <v>746610.604713255</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.836444232594659e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.381334974823403e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.777757708</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
-        <v>1.395260787621842e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277314</v>
       </c>
       <c r="E4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670409</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26444,19 +26444,19 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670376</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670392</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114427.8260812235</v>
+        <v>-114427.8260812233</v>
       </c>
       <c r="C6" t="n">
-        <v>475540.0531333213</v>
+        <v>475540.0531333211</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333212</v>
+        <v>475540.0531333205</v>
       </c>
       <c r="E6" t="n">
-        <v>-303952.2954700314</v>
+        <v>-304299.6747243875</v>
       </c>
       <c r="F6" t="n">
-        <v>640420.4822876776</v>
+        <v>640073.1030333206</v>
       </c>
       <c r="G6" t="n">
-        <v>640420.4822876779</v>
+        <v>640073.1030333207</v>
       </c>
       <c r="H6" t="n">
-        <v>640420.4822876775</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="I6" t="n">
-        <v>640420.4822876776</v>
+        <v>640073.1030333207</v>
       </c>
       <c r="J6" t="n">
-        <v>463997.2630950845</v>
+        <v>463649.8838407277</v>
       </c>
       <c r="K6" t="n">
-        <v>640420.4822876776</v>
+        <v>640073.103033321</v>
       </c>
       <c r="L6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="M6" t="n">
-        <v>516211.9715796193</v>
+        <v>515864.5923252626</v>
       </c>
       <c r="N6" t="n">
-        <v>640420.4822876777</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="O6" t="n">
-        <v>640420.4822876779</v>
+        <v>640073.103033321</v>
       </c>
       <c r="P6" t="n">
-        <v>640420.4822876782</v>
+        <v>640073.1030333209</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170872</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245864</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>231.4759437003397</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>158.9065178062698</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>91.97317108823015</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>208.9062287299215</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>163.7993673206534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717194</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>43.13981385480301</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>203.5215872495772</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>17.43445455447921</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853693</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491422</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>6.771212764859825</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551307</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.958360270247412e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-9.939071787812279e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554475</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.371903895467</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.988205504414</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633811</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727388</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473563</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141122</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188926</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890693</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396487</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034989</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131475</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061916</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078621</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644451</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492008</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813584</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302251</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175858</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383812</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678017</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701168</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315616</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>726.7533607666126</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>590.4022545401845</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O45" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898709</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116801</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898692</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770702</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262941</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355112</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713965</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458882</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557983</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873161</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>584.6193268445942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>451.8478747603102</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O45" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602493.099500775</v>
+        <v>3604253.629803563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>173.9075754644965</v>
       </c>
       <c r="H5" t="n">
-        <v>160.1234054437037</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690844</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>156.1565660710347</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.04394802033236</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.0115294480439</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>105.11626575513</v>
+        <v>140.7215037338438</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>174.7683347992595</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>174.7683347992597</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>27.02919805176109</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>96.02642072444128</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>65.99480013030595</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.569168355882</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154704</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>622.34095280872</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="E5" t="n">
-        <v>236.5527002104757</v>
+        <v>236.5527002104735</v>
       </c>
       <c r="F5" t="n">
-        <v>229.6071994612723</v>
+        <v>229.60719946127</v>
       </c>
       <c r="G5" t="n">
-        <v>215.6837953998632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592774</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331694</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.569168355882</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4634,19 +4634,19 @@
         <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961345</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673425</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>713.518987007537</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952013</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>415.4892540128081</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148978</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323015</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323015</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323015</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.75737613363</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224084</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2659.730961704758</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2659.730961704758</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2659.730961704758</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2659.730961704758</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2659.730961704758</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.962306434643</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.496548173563</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1543.357216197752</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615932</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572653</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315297</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.725111861912</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5937,10 +5937,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U22" t="n">
         <v>1983.7822433412</v>
@@ -5983,34 +5983,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1018.438627038652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>849.5024441107454</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>699.3858046984096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>551.4727111160165</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1938.2863919474</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1648.869221910439</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1420.879671012422</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.087091868892</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7028,10 +7028,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,10 +7733,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
   </sheetData>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599066</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451742</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>181.406732581461</v>
+        <v>145.8014946027472</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>111.4161395899845</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>118.3918499711702</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>190.1580536648029</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>32.8926045705997</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>79.4262478926253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.5844758430729</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="13">
@@ -26316,16 +26316,16 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244619</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26337,22 +26337,22 @@
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26368,13 +26368,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.836444232594659e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.381334974823403e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.777757708</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277314</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26450,7 +26450,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-114427.8260812233</v>
       </c>
       <c r="C6" t="n">
-        <v>475540.0531333211</v>
+        <v>475540.0531333215</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333205</v>
+        <v>475540.0531333213</v>
       </c>
       <c r="E6" t="n">
-        <v>-304299.6747243875</v>
+        <v>-303987.0333954669</v>
       </c>
       <c r="F6" t="n">
-        <v>640073.1030333206</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="G6" t="n">
-        <v>640073.1030333207</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="H6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="I6" t="n">
-        <v>640073.1030333207</v>
+        <v>640385.7443622419</v>
       </c>
       <c r="J6" t="n">
-        <v>463649.8838407277</v>
+        <v>463962.5251696495</v>
       </c>
       <c r="K6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622425</v>
       </c>
       <c r="L6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="M6" t="n">
-        <v>515864.5923252626</v>
+        <v>516177.2336541838</v>
       </c>
       <c r="N6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="O6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622424</v>
       </c>
       <c r="P6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622422</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170872</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245864</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450922</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450922</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450922</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>239.8765945562985</v>
       </c>
       <c r="H5" t="n">
-        <v>163.7993673206534</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717194</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>226.5772755924459</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.43445455447921</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853693</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491422</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551307</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.5731239040509</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554475</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633811</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473563</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141122</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188926</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890693</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396487</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034989</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061916</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078621</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644451</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813584</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302251</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175858</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383812</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701168</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488891</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365567</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>593.5422977113961</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34453,13 +34453,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898709</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770702</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355112</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713965</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873161</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655557</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453838</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>462.2005856280628</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
